--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,16 +7442,16 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,16 +7490,16 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -8536,26 +8536,26 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,26 +8584,26 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12194,16 +12194,16 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12242,16 +12242,16 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14311,11 +14311,11 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>50000</v>
+        <v>78650</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -14324,12 +14324,12 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14359,11 +14359,11 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>78650</v>
+        <v>50000</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14372,12 +14372,12 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -15444,7 +15444,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15459,11 +15459,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15492,7 +15492,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15507,11 +15507,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -17220,7 +17220,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
+          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17235,11 +17235,11 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17268,7 +17268,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
+          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17283,11 +17283,11 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17316,7 +17316,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17326,16 +17326,16 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17344,12 +17344,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17364,7 +17364,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17374,16 +17374,16 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Minera Cerro Dominador S.A.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17392,12 +17392,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -18224,7 +18224,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18239,11 +18239,11 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F373" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -18252,12 +18252,12 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -18272,7 +18272,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18287,11 +18287,11 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F374" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -18300,12 +18300,12 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -19564,7 +19564,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -19574,16 +19574,16 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F401" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -19592,12 +19592,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -19612,7 +19612,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -19622,16 +19622,16 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F402" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -19640,12 +19640,12 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -9668,7 +9668,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,16 +7442,16 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,16 +7490,16 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -8536,26 +8536,26 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,26 +8584,26 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12194,16 +12194,16 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12242,16 +12242,16 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14311,11 +14311,11 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>78650</v>
+        <v>417</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -14324,12 +14324,12 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Compañía Minera Cochrane Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>417</v>
+        <v>78650</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14420,12 +14420,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14450,16 +14450,16 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14498,16 +14498,16 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -15444,7 +15444,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15459,11 +15459,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15492,7 +15492,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15507,11 +15507,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -17220,7 +17220,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
+          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17235,11 +17235,11 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17268,7 +17268,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
+          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17283,11 +17283,11 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17316,7 +17316,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17326,16 +17326,16 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Minera Cerro Dominador S.A.</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17344,12 +17344,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17364,7 +17364,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17374,16 +17374,16 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17392,12 +17392,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -18224,7 +18224,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18239,11 +18239,11 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F373" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -18252,12 +18252,12 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -18272,7 +18272,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18287,11 +18287,11 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F374" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -18300,12 +18300,12 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -19564,7 +19564,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -19574,16 +19574,16 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F401" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -19592,12 +19592,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -19612,7 +19612,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -19622,16 +19622,16 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F402" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -19640,12 +19640,12 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,16 +7442,16 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,16 +7490,16 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -8536,26 +8536,26 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,26 +8584,26 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12194,16 +12194,16 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12242,16 +12242,16 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14311,11 +14311,11 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Compañía Minera Cochrane Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>417</v>
+        <v>78650</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -14324,12 +14324,12 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>78650</v>
+        <v>417</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14420,12 +14420,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14450,16 +14450,16 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14498,16 +14498,16 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -15444,7 +15444,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15459,11 +15459,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15492,7 +15492,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15507,11 +15507,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -17220,7 +17220,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
+          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17235,11 +17235,11 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17268,7 +17268,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
+          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17283,11 +17283,11 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17316,7 +17316,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17326,16 +17326,16 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17344,12 +17344,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17364,7 +17364,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17374,16 +17374,16 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Minera Cerro Dominador S.A.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17392,12 +17392,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -18224,7 +18224,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18239,11 +18239,11 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F373" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -18252,12 +18252,12 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -18272,7 +18272,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18287,11 +18287,11 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F374" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -18300,12 +18300,12 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -19564,7 +19564,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -19574,16 +19574,16 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F401" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -19592,12 +19592,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -19612,7 +19612,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -19622,16 +19622,16 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F402" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -19640,12 +19640,12 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -884,7 +884,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,16 +7490,16 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7538,16 +7538,16 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -8584,26 +8584,26 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,26 +8632,26 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12242,16 +12242,16 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12290,16 +12290,16 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14359,11 +14359,11 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>78650</v>
+        <v>417</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14372,12 +14372,12 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Compañía Minera Cochrane Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>417</v>
+        <v>78650</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14498,16 +14498,16 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14546,16 +14546,16 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -15492,7 +15492,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15507,11 +15507,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15540,7 +15540,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15555,11 +15555,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15573,7 +15573,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -17268,7 +17268,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
+          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17283,11 +17283,11 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17316,7 +17316,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
+          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17331,11 +17331,11 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17364,7 +17364,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17374,16 +17374,16 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Minera Cerro Dominador S.A.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17392,12 +17392,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17412,7 +17412,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17422,16 +17422,16 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17440,12 +17440,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -18272,7 +18272,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18287,11 +18287,11 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F374" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -18300,12 +18300,12 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -18320,7 +18320,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18335,11 +18335,11 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F375" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18348,12 +18348,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -19612,7 +19612,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -19622,16 +19622,16 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F402" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -19640,12 +19640,12 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -19660,7 +19660,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -19670,16 +19670,16 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -19688,12 +19688,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,16 +7490,16 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7538,16 +7538,16 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -8584,26 +8584,26 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,26 +8632,26 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12242,16 +12242,16 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12290,16 +12290,16 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14359,11 +14359,11 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Compañía Minera Cochrane Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>417</v>
+        <v>78650</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14372,12 +14372,12 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>78650</v>
+        <v>417</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14498,16 +14498,16 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14546,16 +14546,16 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -15492,7 +15492,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15507,11 +15507,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15540,7 +15540,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15555,11 +15555,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15573,7 +15573,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -17268,7 +17268,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
+          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17283,11 +17283,11 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17316,7 +17316,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
+          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17331,11 +17331,11 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17364,7 +17364,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17374,16 +17374,16 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17392,12 +17392,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17412,7 +17412,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17422,16 +17422,16 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Minera Cerro Dominador S.A.</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17440,12 +17440,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -18272,7 +18272,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18287,11 +18287,11 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F374" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -18300,12 +18300,12 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -18320,7 +18320,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18335,11 +18335,11 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F375" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18348,12 +18348,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -19612,7 +19612,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -19622,16 +19622,16 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F402" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -19640,12 +19640,12 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -19660,7 +19660,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -19670,16 +19670,16 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -19688,12 +19688,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7538,16 +7538,16 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7586,16 +7586,16 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -8632,26 +8632,26 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,26 +8680,26 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12290,16 +12290,16 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12338,16 +12338,16 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>50000</v>
+        <v>78650</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14420,12 +14420,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>78650</v>
+        <v>50000</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -15540,7 +15540,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15555,11 +15555,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15573,7 +15573,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15588,7 +15588,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15603,11 +15603,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -17412,7 +17412,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17422,16 +17422,16 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17440,12 +17440,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17460,7 +17460,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17470,16 +17470,16 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Minera Cerro Dominador S.A.</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17488,12 +17488,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -18320,7 +18320,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18335,11 +18335,11 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F375" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18348,12 +18348,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -18368,7 +18368,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -18383,11 +18383,11 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F376" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -18396,12 +18396,12 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
@@ -19660,7 +19660,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -19670,16 +19670,16 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -19688,12 +19688,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -19708,7 +19708,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19718,16 +19718,16 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19736,12 +19736,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7538,16 +7538,16 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7586,16 +7586,16 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -8632,26 +8632,26 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,26 +8680,26 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12290,16 +12290,16 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12338,16 +12338,16 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>78650</v>
+        <v>417</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14420,12 +14420,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Compañía Minera Cochrane Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>417</v>
+        <v>78650</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14546,16 +14546,16 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14594,16 +14594,16 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -15540,7 +15540,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15555,11 +15555,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15573,7 +15573,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15588,7 +15588,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15603,11 +15603,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -17316,7 +17316,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
+          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17331,11 +17331,11 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17364,7 +17364,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
+          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17379,11 +17379,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17412,7 +17412,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17422,16 +17422,16 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Minera Cerro Dominador S.A.</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17440,12 +17440,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17460,7 +17460,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17470,16 +17470,16 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17488,12 +17488,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -18320,7 +18320,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18335,11 +18335,11 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F375" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18348,12 +18348,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -18368,7 +18368,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -18383,11 +18383,11 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F376" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -18396,12 +18396,12 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
@@ -19660,7 +19660,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -19670,16 +19670,16 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -19688,12 +19688,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -19708,7 +19708,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19718,16 +19718,16 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19736,12 +19736,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7538,16 +7538,16 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7586,16 +7586,16 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -8632,26 +8632,26 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,26 +8680,26 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12290,16 +12290,16 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12338,16 +12338,16 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Compañía Minera Cochrane Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>417</v>
+        <v>78650</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14420,12 +14420,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>78650</v>
+        <v>417</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14546,16 +14546,16 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14594,16 +14594,16 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -15540,7 +15540,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15555,11 +15555,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15573,7 +15573,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15588,7 +15588,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15603,11 +15603,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -17316,7 +17316,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
+          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17331,11 +17331,11 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17364,7 +17364,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
+          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17379,11 +17379,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17412,7 +17412,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17422,16 +17422,16 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17440,12 +17440,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17460,7 +17460,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17470,16 +17470,16 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Minera Cerro Dominador S.A.</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17488,12 +17488,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -18320,7 +18320,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18335,11 +18335,11 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F375" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18348,12 +18348,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -18368,7 +18368,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -18383,11 +18383,11 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F376" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -18396,12 +18396,12 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
@@ -19660,7 +19660,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -19670,16 +19670,16 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -19688,12 +19688,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -19708,7 +19708,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19718,16 +19718,16 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19736,12 +19736,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>01/03/2022</t>
+          <t>07/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7538,16 +7538,16 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7586,16 +7586,16 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -8632,26 +8632,26 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,26 +8680,26 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12290,16 +12290,16 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12338,16 +12338,16 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Compañía Minera Cochrane Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>417</v>
+        <v>78650</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14420,12 +14420,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>78650</v>
+        <v>417</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14546,16 +14546,16 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14594,16 +14594,16 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -15540,7 +15540,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15555,11 +15555,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15573,7 +15573,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15588,7 +15588,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15603,11 +15603,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -17316,7 +17316,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
+          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17331,11 +17331,11 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17364,7 +17364,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
+          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17379,11 +17379,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17412,7 +17412,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17422,16 +17422,16 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17440,12 +17440,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17460,7 +17460,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17470,16 +17470,16 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Minera Cerro Dominador S.A.</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17488,12 +17488,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -18320,7 +18320,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18335,11 +18335,11 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F375" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18348,12 +18348,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -18368,7 +18368,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -18383,11 +18383,11 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F376" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -18396,12 +18396,12 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
@@ -19660,7 +19660,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -19670,16 +19670,16 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -19688,12 +19688,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -19708,7 +19708,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19718,16 +19718,16 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19736,12 +19736,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7538,16 +7538,16 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7586,16 +7586,16 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -8632,26 +8632,26 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,26 +8680,26 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12290,16 +12290,16 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12338,16 +12338,16 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>78650</v>
+        <v>50000</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14420,12 +14420,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>50000</v>
+        <v>78650</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -15540,7 +15540,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15555,11 +15555,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15573,7 +15573,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15588,7 +15588,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15603,11 +15603,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -17412,7 +17412,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17422,16 +17422,16 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Minera Cerro Dominador S.A.</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17440,12 +17440,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17460,7 +17460,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17470,16 +17470,16 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17488,12 +17488,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -18320,7 +18320,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18335,11 +18335,11 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F375" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18348,12 +18348,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -18368,7 +18368,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -18383,11 +18383,11 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F376" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -18396,12 +18396,12 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
@@ -19660,7 +19660,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -19670,16 +19670,16 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -19688,12 +19688,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -19708,7 +19708,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19718,16 +19718,16 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19736,12 +19736,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7538,16 +7538,16 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7586,16 +7586,16 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -8632,26 +8632,26 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,26 +8680,26 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12290,16 +12290,16 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12338,16 +12338,16 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>50000</v>
+        <v>78650</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14420,12 +14420,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>78650</v>
+        <v>50000</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -15540,7 +15540,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15555,11 +15555,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15573,7 +15573,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15588,7 +15588,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15603,11 +15603,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -17412,7 +17412,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17422,16 +17422,16 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17440,12 +17440,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17460,7 +17460,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17470,16 +17470,16 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Minera Cerro Dominador S.A.</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17488,12 +17488,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -18320,7 +18320,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18335,11 +18335,11 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F375" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18348,12 +18348,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -18368,7 +18368,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -18383,11 +18383,11 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F376" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -18396,12 +18396,12 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
@@ -19660,7 +19660,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -19670,16 +19670,16 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -19688,12 +19688,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -19708,7 +19708,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19718,16 +19718,16 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19736,12 +19736,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -1220,7 +1220,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -17316,7 +17316,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
+          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17331,11 +17331,11 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17364,7 +17364,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
+          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17379,11 +17379,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7538,16 +7538,16 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7586,16 +7586,16 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -8632,26 +8632,26 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,26 +8680,26 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12290,16 +12290,16 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12338,16 +12338,16 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>50000</v>
+        <v>78650</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14420,12 +14420,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>78650</v>
+        <v>50000</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -15540,7 +15540,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15555,11 +15555,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15573,7 +15573,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15588,7 +15588,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15603,11 +15603,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -17316,7 +17316,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
+          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17331,11 +17331,11 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17364,7 +17364,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
+          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17379,11 +17379,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17412,7 +17412,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17422,16 +17422,16 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17440,12 +17440,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17460,7 +17460,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17470,16 +17470,16 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Minera Cerro Dominador S.A.</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17488,12 +17488,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -18320,7 +18320,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18335,11 +18335,11 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F375" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18348,12 +18348,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -18368,7 +18368,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -18383,11 +18383,11 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F376" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -18396,12 +18396,12 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
@@ -19660,7 +19660,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -19670,16 +19670,16 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -19688,12 +19688,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -19708,7 +19708,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19718,16 +19718,16 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19736,12 +19736,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7538,16 +7538,16 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7586,16 +7586,16 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -8632,26 +8632,26 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,26 +8680,26 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12290,16 +12290,16 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12338,16 +12338,16 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>78650</v>
+        <v>50000</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14420,12 +14420,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>50000</v>
+        <v>78650</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -15540,7 +15540,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15555,11 +15555,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15573,7 +15573,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15588,7 +15588,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15603,11 +15603,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -17316,7 +17316,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
+          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17331,11 +17331,11 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17364,7 +17364,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
+          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17379,11 +17379,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17412,7 +17412,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17422,16 +17422,16 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Minera Cerro Dominador S.A.</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17440,12 +17440,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17460,7 +17460,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17470,16 +17470,16 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17488,12 +17488,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -18320,7 +18320,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18335,11 +18335,11 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F375" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18348,12 +18348,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -18368,7 +18368,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -18383,11 +18383,11 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F376" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -18396,12 +18396,12 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
@@ -19660,7 +19660,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -19670,16 +19670,16 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -19688,12 +19688,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -19708,7 +19708,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19718,16 +19718,16 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19736,12 +19736,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -1028,7 +1028,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -17475,7 +17475,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Salva-12 SpA</t>
         </is>
       </c>
       <c r="F357" t="n">
@@ -19483,7 +19483,7 @@
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Salva-12 SpA</t>
         </is>
       </c>
       <c r="F399" t="n">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7538,16 +7538,16 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7586,16 +7586,16 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -8632,26 +8632,26 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,26 +8680,26 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12290,16 +12290,16 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12338,16 +12338,16 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>78650</v>
+        <v>50000</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14420,12 +14420,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>50000</v>
+        <v>78650</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -15540,7 +15540,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15555,11 +15555,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15573,7 +15573,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15588,7 +15588,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15603,11 +15603,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -17316,7 +17316,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
+          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17331,11 +17331,11 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17364,7 +17364,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
+          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17379,11 +17379,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17412,7 +17412,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17422,16 +17422,16 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-12 SpA</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17440,12 +17440,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17460,7 +17460,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17470,16 +17470,16 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Salva-12 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17488,12 +17488,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -18320,7 +18320,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18335,11 +18335,11 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F375" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18348,12 +18348,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -18368,7 +18368,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -18383,11 +18383,11 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F376" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -18396,12 +18396,12 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
@@ -19660,7 +19660,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -19670,16 +19670,16 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -19688,12 +19688,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -19708,7 +19708,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19718,16 +19718,16 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19736,12 +19736,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7538,16 +7538,16 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7586,16 +7586,16 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -8632,26 +8632,26 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,26 +8680,26 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12290,16 +12290,16 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12338,16 +12338,16 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>50000</v>
+        <v>78650</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14420,12 +14420,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>78650</v>
+        <v>50000</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -15540,7 +15540,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15555,11 +15555,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15573,7 +15573,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15588,7 +15588,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15603,11 +15603,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -17316,7 +17316,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
+          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17331,11 +17331,11 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17364,7 +17364,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
+          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17379,11 +17379,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17412,7 +17412,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17422,16 +17422,16 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Salva-12 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17440,12 +17440,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17460,7 +17460,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17470,16 +17470,16 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-12 SpA</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17488,12 +17488,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -18320,7 +18320,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18335,11 +18335,11 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F375" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18348,12 +18348,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -18368,7 +18368,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -18383,11 +18383,11 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F376" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -18396,12 +18396,12 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
@@ -19660,7 +19660,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -19670,16 +19670,16 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -19688,12 +19688,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -19708,7 +19708,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19718,16 +19718,16 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19736,12 +19736,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7586,16 +7586,16 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7634,16 +7634,16 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -8680,26 +8680,26 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,26 +8728,26 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12338,16 +12338,16 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12386,16 +12386,16 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>50000</v>
+        <v>78650</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>78650</v>
+        <v>50000</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14594,16 +14594,16 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14642,16 +14642,16 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -15588,7 +15588,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15603,11 +15603,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15636,7 +15636,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15651,11 +15651,11 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -17364,7 +17364,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
+          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17379,11 +17379,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17412,7 +17412,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
+          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17427,11 +17427,11 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17460,7 +17460,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17470,16 +17470,16 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Salva-12 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17488,12 +17488,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17508,7 +17508,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17518,16 +17518,16 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-12 SpA</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17536,12 +17536,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -18368,7 +18368,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -18383,11 +18383,11 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F376" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -18396,12 +18396,12 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
@@ -18416,7 +18416,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -18431,11 +18431,11 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F377" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
@@ -18444,12 +18444,12 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
@@ -19708,7 +19708,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19718,16 +19718,16 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19736,12 +19736,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -19756,7 +19756,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19766,16 +19766,16 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F405" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -19784,12 +19784,12 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7586,16 +7586,16 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7634,16 +7634,16 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -8680,26 +8680,26 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,26 +8728,26 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12338,16 +12338,16 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12386,16 +12386,16 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>78650</v>
+        <v>50000</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>50000</v>
+        <v>78650</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14594,16 +14594,16 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14642,16 +14642,16 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -15588,7 +15588,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15603,11 +15603,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15636,7 +15636,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15651,11 +15651,11 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -17364,7 +17364,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
+          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17379,11 +17379,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17412,7 +17412,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
+          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17427,11 +17427,11 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17460,7 +17460,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17470,16 +17470,16 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-12 SpA</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17488,12 +17488,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17508,7 +17508,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17518,16 +17518,16 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Salva-12 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17536,12 +17536,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -18368,7 +18368,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -18383,11 +18383,11 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F376" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -18396,12 +18396,12 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
@@ -18416,7 +18416,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -18431,11 +18431,11 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F377" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
@@ -18444,12 +18444,12 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
@@ -19708,7 +19708,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19718,16 +19718,16 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19736,12 +19736,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -19756,7 +19756,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19766,16 +19766,16 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F405" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -19784,12 +19784,12 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/04/2022</t>
+          <t>26/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -1831,7 +1831,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Fontus Prime Solar SpA</t>
+          <t>Quebrada del Sol SpA</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7586,16 +7586,16 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7634,16 +7634,16 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -8680,26 +8680,26 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,26 +8728,26 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12338,16 +12338,16 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12386,16 +12386,16 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>78650</v>
+        <v>50000</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>50000</v>
+        <v>78650</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14594,16 +14594,16 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14642,16 +14642,16 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -15588,7 +15588,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15603,11 +15603,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15636,7 +15636,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15651,11 +15651,11 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -17364,7 +17364,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
+          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17379,11 +17379,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17412,7 +17412,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
+          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17427,11 +17427,11 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17460,7 +17460,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17470,16 +17470,16 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-12 SpA</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17488,12 +17488,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17508,7 +17508,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17518,16 +17518,16 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Salva-12 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17536,12 +17536,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -18368,7 +18368,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -18383,11 +18383,11 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F376" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -18396,12 +18396,12 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
@@ -18416,7 +18416,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -18431,11 +18431,11 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F377" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
@@ -18444,12 +18444,12 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
@@ -19708,7 +19708,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19718,16 +19718,16 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19736,12 +19736,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -19756,7 +19756,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19766,16 +19766,16 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F405" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -19784,12 +19784,12 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/07/2022</t>
+          <t>18/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7634,16 +7634,16 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,16 +7682,16 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -8728,26 +8728,26 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,26 +8776,26 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12386,16 +12386,16 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12434,16 +12434,16 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12457,7 +12457,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>78650</v>
+        <v>417</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>50000</v>
+        <v>78650</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Compañía Minera Cochrane Ltda.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>417</v>
+        <v>50000</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14642,16 +14642,16 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14690,16 +14690,16 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -15636,7 +15636,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15651,11 +15651,11 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15684,7 +15684,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15699,11 +15699,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15717,7 +15717,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -17508,7 +17508,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17518,16 +17518,16 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-12 SpA</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17536,12 +17536,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17556,7 +17556,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17566,16 +17566,16 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Salva-12 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17584,12 +17584,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -18416,7 +18416,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -18431,11 +18431,11 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F377" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
@@ -18444,12 +18444,12 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
@@ -18464,7 +18464,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -18479,11 +18479,11 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F378" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
@@ -18492,12 +18492,12 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
@@ -19756,7 +19756,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19766,16 +19766,16 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F405" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -19784,12 +19784,12 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -19804,7 +19804,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19814,16 +19814,16 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19832,12 +19832,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7634,16 +7634,16 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,16 +7682,16 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -8728,26 +8728,26 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,26 +8776,26 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12386,16 +12386,16 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12434,16 +12434,16 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12457,7 +12457,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Compañía Minera Cochrane Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>417</v>
+        <v>78650</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>78650</v>
+        <v>50000</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>50000</v>
+        <v>417</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14642,16 +14642,16 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14690,16 +14690,16 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -15636,7 +15636,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15651,11 +15651,11 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15684,7 +15684,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15699,11 +15699,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15717,7 +15717,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -17508,7 +17508,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17518,16 +17518,16 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Salva-12 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17536,12 +17536,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17556,7 +17556,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17566,16 +17566,16 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-12 SpA</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17584,12 +17584,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -18416,7 +18416,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -18431,11 +18431,11 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F377" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
@@ -18444,12 +18444,12 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
@@ -18464,7 +18464,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -18479,11 +18479,11 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F378" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
@@ -18492,12 +18492,12 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
@@ -19756,7 +19756,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19766,16 +19766,16 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F405" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -19784,12 +19784,12 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -19804,7 +19804,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19814,16 +19814,16 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19832,12 +19832,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/08/2022</t>
+          <t>21/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -17571,7 +17571,7 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Salva-12 SpA</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F359" t="n">
@@ -19051,7 +19051,7 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F390" t="n">
@@ -19579,7 +19579,7 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Salva-12 SpA</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F401" t="n">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7634,16 +7634,16 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,16 +7682,16 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -8728,26 +8728,26 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,26 +8776,26 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12386,16 +12386,16 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12434,16 +12434,16 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12457,7 +12457,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>78650</v>
+        <v>417</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>50000</v>
+        <v>78650</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Compañía Minera Cochrane Ltda.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>417</v>
+        <v>50000</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14642,16 +14642,16 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14690,16 +14690,16 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -15636,7 +15636,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15651,11 +15651,11 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15684,7 +15684,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15699,11 +15699,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15717,7 +15717,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -17508,7 +17508,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17518,16 +17518,16 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17536,12 +17536,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17556,7 +17556,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17566,16 +17566,16 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Salva-21 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17584,12 +17584,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -18416,7 +18416,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -18431,11 +18431,11 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F377" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
@@ -18444,12 +18444,12 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
@@ -18464,7 +18464,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -18479,11 +18479,11 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F378" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
@@ -18492,12 +18492,12 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
@@ -19756,7 +19756,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19766,16 +19766,16 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F405" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -19784,12 +19784,12 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -19804,7 +19804,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19814,16 +19814,16 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19832,12 +19832,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7634,16 +7634,16 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,16 +7682,16 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -8728,26 +8728,26 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,26 +8776,26 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12386,16 +12386,16 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12434,16 +12434,16 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12457,7 +12457,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Compañía Minera Cochrane Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>417</v>
+        <v>78650</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>78650</v>
+        <v>50000</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>50000</v>
+        <v>417</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14642,16 +14642,16 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14690,16 +14690,16 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -15636,7 +15636,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15651,11 +15651,11 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15684,7 +15684,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15699,11 +15699,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15717,7 +15717,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -17508,7 +17508,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17518,16 +17518,16 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Salva-21 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17536,12 +17536,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17556,7 +17556,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17566,16 +17566,16 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17584,12 +17584,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -18416,7 +18416,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -18431,11 +18431,11 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F377" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
@@ -18444,12 +18444,12 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
@@ -18464,7 +18464,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -18479,11 +18479,11 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F378" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
@@ -18492,12 +18492,12 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
@@ -19756,7 +19756,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19766,16 +19766,16 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F405" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -19784,12 +19784,12 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -19804,7 +19804,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19814,16 +19814,16 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19832,12 +19832,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7634,16 +7634,16 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,16 +7682,16 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -8728,26 +8728,26 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,26 +8776,26 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12386,16 +12386,16 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12434,16 +12434,16 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12457,7 +12457,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>78650</v>
+        <v>50000</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>50000</v>
+        <v>78650</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14642,16 +14642,16 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14690,16 +14690,16 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -15636,7 +15636,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15651,11 +15651,11 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15684,7 +15684,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15699,11 +15699,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15717,7 +15717,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -17412,7 +17412,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
+          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17427,11 +17427,11 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17460,7 +17460,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
+          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17475,11 +17475,11 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17508,7 +17508,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17518,16 +17518,16 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17536,12 +17536,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17556,7 +17556,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17566,16 +17566,16 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Salva-21 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17584,12 +17584,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -18416,7 +18416,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -18431,11 +18431,11 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F377" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
@@ -18444,12 +18444,12 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
@@ -18464,7 +18464,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -18479,11 +18479,11 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F378" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
@@ -18492,12 +18492,12 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
@@ -19756,7 +19756,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19766,16 +19766,16 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F405" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -19784,12 +19784,12 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -19804,7 +19804,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19814,16 +19814,16 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19832,12 +19832,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7634,16 +7634,16 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,16 +7682,16 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -8728,26 +8728,26 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,26 +8776,26 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12386,16 +12386,16 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12434,16 +12434,16 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12457,7 +12457,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>50000</v>
+        <v>78650</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>78650</v>
+        <v>50000</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14642,16 +14642,16 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14690,16 +14690,16 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -15636,7 +15636,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15651,11 +15651,11 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15684,7 +15684,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15699,11 +15699,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15717,7 +15717,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -17412,7 +17412,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
+          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17427,11 +17427,11 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17460,7 +17460,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
+          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17475,11 +17475,11 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17508,7 +17508,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17518,16 +17518,16 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Salva-21 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17536,12 +17536,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17556,7 +17556,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17566,16 +17566,16 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17584,12 +17584,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -18416,7 +18416,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -18431,11 +18431,11 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F377" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
@@ -18444,12 +18444,12 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
@@ -18464,7 +18464,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -18479,11 +18479,11 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F378" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
@@ -18492,12 +18492,12 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
@@ -19756,7 +19756,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19766,16 +19766,16 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F405" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -19784,12 +19784,12 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -19804,7 +19804,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19814,16 +19814,16 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19832,12 +19832,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -2324,7 +2324,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7634,16 +7634,16 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,16 +7682,16 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -8728,26 +8728,26 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,26 +8776,26 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12386,16 +12386,16 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12434,16 +12434,16 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12457,7 +12457,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>78650</v>
+        <v>50000</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>50000</v>
+        <v>78650</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -15636,7 +15636,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15651,11 +15651,11 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15684,7 +15684,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15699,11 +15699,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15717,7 +15717,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -17412,7 +17412,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
+          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17427,11 +17427,11 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17460,7 +17460,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
+          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17475,11 +17475,11 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17508,7 +17508,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17518,16 +17518,16 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17536,12 +17536,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17556,7 +17556,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17566,16 +17566,16 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Salva-21 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17584,12 +17584,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -18416,7 +18416,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -18431,11 +18431,11 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F377" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
@@ -18444,12 +18444,12 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
@@ -18464,7 +18464,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -18479,11 +18479,11 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F378" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
@@ -18492,12 +18492,12 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
@@ -19756,7 +19756,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19766,16 +19766,16 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F405" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -19784,12 +19784,12 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -19804,7 +19804,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19814,16 +19814,16 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19832,12 +19832,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7634,16 +7634,16 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,16 +7682,16 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -8728,26 +8728,26 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,26 +8776,26 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12386,16 +12386,16 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12434,16 +12434,16 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12457,7 +12457,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>50000</v>
+        <v>78650</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>78650</v>
+        <v>50000</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -15636,7 +15636,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15651,11 +15651,11 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15684,7 +15684,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15699,11 +15699,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15717,7 +15717,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -17412,7 +17412,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
+          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17427,11 +17427,11 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17460,7 +17460,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
+          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17475,11 +17475,11 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17508,7 +17508,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17518,16 +17518,16 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Salva-21 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17536,12 +17536,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17556,7 +17556,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17566,16 +17566,16 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17584,12 +17584,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -18416,7 +18416,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -18431,11 +18431,11 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F377" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
@@ -18444,12 +18444,12 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
@@ -18464,7 +18464,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -18479,11 +18479,11 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F378" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
@@ -18492,12 +18492,12 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
@@ -19756,7 +19756,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19766,16 +19766,16 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F405" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -19784,12 +19784,12 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -19804,7 +19804,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19814,16 +19814,16 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19832,12 +19832,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -788,7 +788,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7634,16 +7634,16 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,16 +7682,16 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -8728,26 +8728,26 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,26 +8776,26 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12386,16 +12386,16 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12434,16 +12434,16 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12457,7 +12457,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>78650</v>
+        <v>50000</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>50000</v>
+        <v>78650</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -15636,7 +15636,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15651,11 +15651,11 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15684,7 +15684,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15699,11 +15699,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15717,7 +15717,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -17508,7 +17508,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17518,16 +17518,16 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17536,12 +17536,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17556,7 +17556,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17566,16 +17566,16 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Salva-21 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17584,12 +17584,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -18416,7 +18416,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -18431,11 +18431,11 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F377" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
@@ -18444,12 +18444,12 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
@@ -18464,7 +18464,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -18479,11 +18479,11 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F378" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
@@ -18492,12 +18492,12 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
@@ -19756,7 +19756,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19766,16 +19766,16 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F405" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -19784,12 +19784,12 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -19804,7 +19804,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19814,16 +19814,16 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19832,12 +19832,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7634,16 +7634,16 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,16 +7682,16 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -8728,26 +8728,26 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,26 +8776,26 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12386,16 +12386,16 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12434,16 +12434,16 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12457,7 +12457,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>50000</v>
+        <v>78650</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>78650</v>
+        <v>50000</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -15636,7 +15636,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15651,11 +15651,11 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15684,7 +15684,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15699,11 +15699,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15717,7 +15717,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -17508,7 +17508,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17518,16 +17518,16 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Salva-21 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17536,12 +17536,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17556,7 +17556,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17566,16 +17566,16 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17584,12 +17584,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -18416,7 +18416,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -18431,11 +18431,11 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F377" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
@@ -18444,12 +18444,12 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
@@ -18464,7 +18464,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -18479,11 +18479,11 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F378" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
@@ -18492,12 +18492,12 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
@@ -19756,7 +19756,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19766,16 +19766,16 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F405" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -19784,12 +19784,12 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -19804,7 +19804,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19814,16 +19814,16 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19832,12 +19832,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -740,7 +740,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7634,16 +7634,16 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,16 +7682,16 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -8728,26 +8728,26 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,26 +8776,26 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12386,16 +12386,16 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12434,16 +12434,16 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12457,7 +12457,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>50000</v>
+        <v>78650</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>78650</v>
+        <v>50000</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -15636,7 +15636,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15651,11 +15651,11 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15684,7 +15684,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15699,11 +15699,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15717,7 +15717,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -17508,7 +17508,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17518,16 +17518,16 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Salva-21 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17536,12 +17536,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17556,7 +17556,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17566,16 +17566,16 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17584,12 +17584,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -18416,7 +18416,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -18431,11 +18431,11 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F377" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
@@ -18444,12 +18444,12 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
@@ -18464,7 +18464,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -18479,11 +18479,11 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F378" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
@@ -18492,12 +18492,12 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
@@ -19756,7 +19756,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19766,16 +19766,16 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F405" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -19784,12 +19784,12 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -19804,7 +19804,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19814,16 +19814,16 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19832,12 +19832,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,16 +7682,16 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,16 +7730,16 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -8776,26 +8776,26 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,26 +8824,26 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12434,16 +12434,16 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12457,7 +12457,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -12472,7 +12472,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12482,16 +12482,16 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>50000</v>
+        <v>78650</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>78650</v>
+        <v>50000</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14690,16 +14690,16 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14738,16 +14738,16 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -15684,7 +15684,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15699,11 +15699,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15717,7 +15717,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15732,7 +15732,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15747,11 +15747,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15765,7 +15765,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -17556,7 +17556,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17566,16 +17566,16 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Salva-21 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17584,12 +17584,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17604,7 +17604,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17614,16 +17614,16 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17632,12 +17632,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -18464,7 +18464,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -18479,11 +18479,11 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F378" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
@@ -18492,12 +18492,12 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
@@ -18512,7 +18512,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -18527,11 +18527,11 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F379" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G379" t="inlineStr">
         <is>
@@ -18540,12 +18540,12 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
@@ -19804,7 +19804,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19814,16 +19814,16 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19832,12 +19832,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -19852,7 +19852,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19862,16 +19862,16 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19880,12 +19880,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,16 +7682,16 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,16 +7730,16 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -8776,26 +8776,26 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,26 +8824,26 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12434,16 +12434,16 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12457,7 +12457,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -12472,7 +12472,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12482,16 +12482,16 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>78650</v>
+        <v>50000</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>50000</v>
+        <v>78650</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14690,16 +14690,16 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14738,16 +14738,16 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -15684,7 +15684,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15699,11 +15699,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15717,7 +15717,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15732,7 +15732,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15747,11 +15747,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15765,7 +15765,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -17556,7 +17556,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17566,16 +17566,16 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17584,12 +17584,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17604,7 +17604,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17614,16 +17614,16 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Salva-21 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17632,12 +17632,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -18464,7 +18464,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -18479,11 +18479,11 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F378" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
@@ -18492,12 +18492,12 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
@@ -18512,7 +18512,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -18527,11 +18527,11 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F379" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G379" t="inlineStr">
         <is>
@@ -18540,12 +18540,12 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
@@ -19804,7 +19804,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19814,16 +19814,16 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19832,12 +19832,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -19852,7 +19852,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19862,16 +19862,16 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19880,12 +19880,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/11/2022</t>
+          <t>22/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,16 +7682,16 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,16 +7730,16 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -8776,26 +8776,26 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,26 +8824,26 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12434,16 +12434,16 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12457,7 +12457,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -12472,7 +12472,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12482,16 +12482,16 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>78650</v>
+        <v>50000</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>50000</v>
+        <v>78650</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14690,16 +14690,16 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14738,16 +14738,16 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -15684,7 +15684,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15699,11 +15699,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15717,7 +15717,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15732,7 +15732,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15747,11 +15747,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15765,7 +15765,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -17460,7 +17460,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
+          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17475,11 +17475,11 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17508,7 +17508,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
+          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17523,11 +17523,11 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17556,7 +17556,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17566,16 +17566,16 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17584,12 +17584,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17604,7 +17604,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17614,16 +17614,16 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Salva-21 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17632,12 +17632,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -18464,7 +18464,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -18479,11 +18479,11 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F378" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
@@ -18492,12 +18492,12 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
@@ -18512,7 +18512,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -18527,11 +18527,11 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F379" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G379" t="inlineStr">
         <is>
@@ -18540,12 +18540,12 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
@@ -19804,7 +19804,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19814,16 +19814,16 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19832,12 +19832,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -19852,7 +19852,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19862,16 +19862,16 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19880,12 +19880,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,16 +7682,16 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,16 +7730,16 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -8776,26 +8776,26 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,26 +8824,26 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12434,16 +12434,16 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12457,7 +12457,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -12472,7 +12472,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12482,16 +12482,16 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>50000</v>
+        <v>78650</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>78650</v>
+        <v>50000</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14690,16 +14690,16 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14738,16 +14738,16 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -15684,7 +15684,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15699,11 +15699,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15717,7 +15717,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15732,7 +15732,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15747,11 +15747,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15765,7 +15765,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -17460,7 +17460,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
+          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17475,11 +17475,11 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17508,7 +17508,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
+          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17523,11 +17523,11 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17556,7 +17556,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17566,16 +17566,16 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Salva-21 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17584,12 +17584,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17604,7 +17604,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17614,16 +17614,16 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17632,12 +17632,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -18464,7 +18464,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -18479,11 +18479,11 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F378" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
@@ -18492,12 +18492,12 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
@@ -18512,7 +18512,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -18527,11 +18527,11 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F379" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G379" t="inlineStr">
         <is>
@@ -18540,12 +18540,12 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
@@ -19804,7 +19804,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19814,16 +19814,16 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19832,12 +19832,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -19852,7 +19852,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19862,16 +19862,16 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19880,12 +19880,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -15603,7 +15603,7 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F318" t="n">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -23611,7 +23611,7 @@
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F485" t="n">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -884,7 +884,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transporte terrestre de ácido sulfúrico y PLS entre la región de Arica y Parinacota y Valparaíso</t>
+          <t>Transporte terrestre de ácido sulfúrico entre la región de Arica y Parinacota y Atacama</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,16 +7730,16 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -8824,26 +8824,26 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,26 +8872,26 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -12472,7 +12472,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12482,16 +12482,16 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12530,16 +12530,16 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>78650</v>
+        <v>417</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>50000</v>
+        <v>78650</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Compañía Minera Cochrane Ltda.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>417</v>
+        <v>50000</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14738,16 +14738,16 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14786,16 +14786,16 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -15732,7 +15732,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15747,11 +15747,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15765,7 +15765,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15780,7 +15780,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15795,11 +15795,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -17508,7 +17508,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
+          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17523,11 +17523,11 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17556,7 +17556,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
+          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17571,11 +17571,11 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17589,7 +17589,7 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17604,7 +17604,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17614,16 +17614,16 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17632,12 +17632,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17652,7 +17652,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17662,16 +17662,16 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Salva-21 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17680,12 +17680,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -18512,7 +18512,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -18527,11 +18527,11 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F379" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G379" t="inlineStr">
         <is>
@@ -18540,12 +18540,12 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
@@ -18560,7 +18560,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -18575,11 +18575,11 @@
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F380" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G380" t="inlineStr">
         <is>
@@ -18588,12 +18588,12 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
@@ -19852,7 +19852,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19862,16 +19862,16 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19880,12 +19880,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -19900,7 +19900,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19910,16 +19910,16 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19928,12 +19928,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,16 +7730,16 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -8824,26 +8824,26 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,26 +8872,26 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -12472,7 +12472,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12482,16 +12482,16 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12530,16 +12530,16 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Compañía Minera Cochrane Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>417</v>
+        <v>78650</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>78650</v>
+        <v>50000</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>50000</v>
+        <v>417</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14738,16 +14738,16 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14786,16 +14786,16 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -15732,7 +15732,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15747,11 +15747,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15765,7 +15765,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15780,7 +15780,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15795,11 +15795,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -17508,7 +17508,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
+          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17523,11 +17523,11 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17556,7 +17556,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
+          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17571,11 +17571,11 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17589,7 +17589,7 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17604,7 +17604,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17614,16 +17614,16 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Salva-21 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17632,12 +17632,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17652,7 +17652,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17662,16 +17662,16 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17680,12 +17680,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -18512,7 +18512,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -18527,11 +18527,11 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F379" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G379" t="inlineStr">
         <is>
@@ -18540,12 +18540,12 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
@@ -18560,7 +18560,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -18575,11 +18575,11 @@
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F380" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G380" t="inlineStr">
         <is>
@@ -18588,12 +18588,12 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
@@ -19852,7 +19852,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19862,16 +19862,16 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19880,12 +19880,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -19900,7 +19900,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19910,16 +19910,16 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19928,12 +19928,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>01/02/2023</t>
+          <t>07/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,16 +7730,16 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -8824,26 +8824,26 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,26 +8872,26 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -12472,7 +12472,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12482,16 +12482,16 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12530,16 +12530,16 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>78650</v>
+        <v>417</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>50000</v>
+        <v>78650</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Compañía Minera Cochrane Ltda.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>417</v>
+        <v>50000</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14738,16 +14738,16 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14786,16 +14786,16 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -15732,7 +15732,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15747,11 +15747,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15765,7 +15765,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15780,7 +15780,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15795,11 +15795,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -17508,7 +17508,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
+          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17523,11 +17523,11 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17556,7 +17556,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
+          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17571,11 +17571,11 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17589,7 +17589,7 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17604,7 +17604,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17614,16 +17614,16 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17632,12 +17632,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17652,7 +17652,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17662,16 +17662,16 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Salva-21 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17680,12 +17680,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -18512,7 +18512,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -18527,11 +18527,11 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F379" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G379" t="inlineStr">
         <is>
@@ -18540,12 +18540,12 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
@@ -18560,7 +18560,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -18575,11 +18575,11 @@
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F380" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G380" t="inlineStr">
         <is>
@@ -18588,12 +18588,12 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
@@ -19852,7 +19852,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19862,16 +19862,16 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19880,12 +19880,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -19900,7 +19900,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19910,16 +19910,16 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19928,12 +19928,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,16 +7730,16 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -8824,26 +8824,26 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,26 +8872,26 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -12472,7 +12472,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12482,16 +12482,16 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12530,16 +12530,16 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Compañía Minera Cochrane Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>417</v>
+        <v>78650</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>78650</v>
+        <v>50000</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>50000</v>
+        <v>417</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14738,16 +14738,16 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14786,16 +14786,16 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -15732,7 +15732,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15747,11 +15747,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15765,7 +15765,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15780,7 +15780,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15795,11 +15795,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -17508,7 +17508,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
+          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17523,11 +17523,11 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17556,7 +17556,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
+          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17571,11 +17571,11 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17589,7 +17589,7 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17604,7 +17604,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17614,16 +17614,16 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Salva-21 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17632,12 +17632,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17652,7 +17652,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17662,16 +17662,16 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17680,12 +17680,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -18512,7 +18512,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -18527,11 +18527,11 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F379" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G379" t="inlineStr">
         <is>
@@ -18540,12 +18540,12 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
@@ -18560,7 +18560,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -18575,11 +18575,11 @@
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F380" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G380" t="inlineStr">
         <is>
@@ -18588,12 +18588,12 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
@@ -19852,7 +19852,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19862,16 +19862,16 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19880,12 +19880,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -19900,7 +19900,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19910,16 +19910,16 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19928,12 +19928,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -8872,26 +8872,26 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,26 +8920,26 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12530,16 +12530,16 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12578,16 +12578,16 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>78650</v>
+        <v>417</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>50000</v>
+        <v>78650</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Compañía Minera Cochrane Ltda.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>417</v>
+        <v>50000</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -15780,7 +15780,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15795,11 +15795,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15828,7 +15828,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15843,11 +15843,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -17652,7 +17652,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17662,16 +17662,16 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17680,12 +17680,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17700,7 +17700,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17710,16 +17710,16 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Salva-21 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17728,12 +17728,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -18560,7 +18560,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -18575,11 +18575,11 @@
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F380" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G380" t="inlineStr">
         <is>
@@ -18588,12 +18588,12 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
@@ -18608,7 +18608,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -18623,11 +18623,11 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F381" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G381" t="inlineStr">
         <is>
@@ -18636,12 +18636,12 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
@@ -19900,7 +19900,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19910,16 +19910,16 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19928,12 +19928,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -19948,7 +19948,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19958,16 +19958,16 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19976,12 +19976,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -8872,26 +8872,26 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,26 +8920,26 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12530,16 +12530,16 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12578,16 +12578,16 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Compañía Minera Cochrane Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>417</v>
+        <v>78650</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>78650</v>
+        <v>50000</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>50000</v>
+        <v>417</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -15780,7 +15780,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15795,11 +15795,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15828,7 +15828,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15843,11 +15843,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -17652,7 +17652,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17662,16 +17662,16 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Salva-21 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17680,12 +17680,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17700,7 +17700,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17710,16 +17710,16 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17728,12 +17728,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -18560,7 +18560,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -18575,11 +18575,11 @@
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F380" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G380" t="inlineStr">
         <is>
@@ -18588,12 +18588,12 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
@@ -18608,7 +18608,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -18623,11 +18623,11 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F381" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G381" t="inlineStr">
         <is>
@@ -18636,12 +18636,12 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
@@ -19900,7 +19900,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19910,16 +19910,16 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19928,12 +19928,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -19948,7 +19948,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19958,16 +19958,16 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19976,12 +19976,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/03/2023</t>
+          <t>22/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -8920,26 +8920,26 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,26 +8968,26 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12578,16 +12578,16 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12626,16 +12626,16 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Compañía Minera Cochrane Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>417</v>
+        <v>78650</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>78650</v>
+        <v>50000</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14791,11 +14791,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>50000</v>
+        <v>417</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14834,16 +14834,16 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14882,16 +14882,16 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -15828,7 +15828,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15843,11 +15843,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15876,7 +15876,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15891,11 +15891,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -17604,7 +17604,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
+          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17619,11 +17619,11 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17652,7 +17652,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
+          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17667,11 +17667,11 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17700,7 +17700,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17710,16 +17710,16 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Salva-21 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17728,12 +17728,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17748,7 +17748,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17758,16 +17758,16 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17776,12 +17776,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -18608,7 +18608,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -18623,11 +18623,11 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F381" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G381" t="inlineStr">
         <is>
@@ -18636,12 +18636,12 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
@@ -18656,7 +18656,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -18671,11 +18671,11 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F382" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G382" t="inlineStr">
         <is>
@@ -18684,12 +18684,12 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
@@ -19948,7 +19948,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19958,16 +19958,16 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19976,12 +19976,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -19996,7 +19996,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20006,16 +20006,16 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20024,12 +20024,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>31/03/2023</t>
+          <t>04/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -5335,7 +5335,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -17619,7 +17619,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F360" t="n">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -8920,26 +8920,26 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,26 +8968,26 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12578,16 +12578,16 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12626,16 +12626,16 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>78650</v>
+        <v>417</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>50000</v>
+        <v>78650</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14791,11 +14791,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Compañía Minera Cochrane Ltda.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>417</v>
+        <v>50000</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14834,16 +14834,16 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14882,16 +14882,16 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -15828,7 +15828,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15843,11 +15843,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15876,7 +15876,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15891,11 +15891,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -17604,7 +17604,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
+          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17619,11 +17619,11 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17652,7 +17652,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
+          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17667,11 +17667,11 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17700,7 +17700,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17710,16 +17710,16 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17728,12 +17728,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17748,7 +17748,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17758,16 +17758,16 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Salva-21 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17776,12 +17776,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -18608,7 +18608,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -18623,11 +18623,11 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F381" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G381" t="inlineStr">
         <is>
@@ -18636,12 +18636,12 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
@@ -18656,7 +18656,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -18671,11 +18671,11 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F382" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G382" t="inlineStr">
         <is>
@@ -18684,12 +18684,12 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
@@ -19948,7 +19948,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19958,16 +19958,16 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19976,12 +19976,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -19996,7 +19996,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20006,16 +20006,16 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20024,12 +20024,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -8920,26 +8920,26 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,26 +8968,26 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12578,16 +12578,16 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12626,16 +12626,16 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Compañía Minera Cochrane Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>417</v>
+        <v>78650</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>78650</v>
+        <v>50000</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14791,11 +14791,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>50000</v>
+        <v>417</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14834,16 +14834,16 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14882,16 +14882,16 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -15828,7 +15828,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15843,11 +15843,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15876,7 +15876,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15891,11 +15891,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -17604,7 +17604,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
+          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17619,11 +17619,11 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17652,7 +17652,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
+          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17667,11 +17667,11 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17700,7 +17700,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17710,16 +17710,16 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Salva-21 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17728,12 +17728,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17748,7 +17748,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17758,16 +17758,16 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17776,12 +17776,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -18608,7 +18608,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -18623,11 +18623,11 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F381" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G381" t="inlineStr">
         <is>
@@ -18636,12 +18636,12 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
@@ -18656,7 +18656,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -18671,11 +18671,11 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F382" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G382" t="inlineStr">
         <is>
@@ -18684,12 +18684,12 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
@@ -19948,7 +19948,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19958,16 +19958,16 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19976,12 +19976,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -19996,7 +19996,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20006,16 +20006,16 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20024,12 +20024,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -4663,7 +4663,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Antofagasta Minerals S.A..</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -7543,7 +7543,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Antofagasta Minerals S.A..</t>
         </is>
       </c>
       <c r="F150" t="n">
@@ -10423,7 +10423,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Antofagasta Minerals S.A..</t>
         </is>
       </c>
       <c r="F210" t="n">
@@ -12295,7 +12295,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Antofagasta Minerals S.A..</t>
         </is>
       </c>
       <c r="F249" t="n">
@@ -12583,7 +12583,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Antofagasta Minerals S.A..</t>
         </is>
       </c>
       <c r="F255" t="n">
@@ -16563,7 +16563,7 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Antofagasta Minerals S.A..</t>
         </is>
       </c>
       <c r="F338" t="n">
@@ -24187,7 +24187,7 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Antofagasta Minerals S.A..</t>
         </is>
       </c>
       <c r="F497" t="n">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -8920,26 +8920,26 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,26 +8968,26 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12578,16 +12578,16 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A..</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12626,16 +12626,16 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A..</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>78650</v>
+        <v>417</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>50000</v>
+        <v>78650</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14791,11 +14791,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Compañía Minera Cochrane Ltda.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>417</v>
+        <v>50000</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14834,16 +14834,16 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14882,16 +14882,16 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -15828,7 +15828,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15843,11 +15843,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15876,7 +15876,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15891,11 +15891,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -17604,7 +17604,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
+          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17619,11 +17619,11 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17652,7 +17652,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
+          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17667,11 +17667,11 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17700,7 +17700,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17710,16 +17710,16 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17728,12 +17728,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17748,7 +17748,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17758,16 +17758,16 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Salva-21 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17776,12 +17776,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -18608,7 +18608,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -18623,11 +18623,11 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F381" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G381" t="inlineStr">
         <is>
@@ -18636,12 +18636,12 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
@@ -18656,7 +18656,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -18671,11 +18671,11 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F382" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G382" t="inlineStr">
         <is>
@@ -18684,12 +18684,12 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
@@ -19948,7 +19948,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19958,16 +19958,16 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19976,12 +19976,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -19996,7 +19996,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20006,16 +20006,16 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20024,12 +20024,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -8920,26 +8920,26 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,26 +8968,26 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12578,16 +12578,16 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A..</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12626,16 +12626,16 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A..</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Compañía Minera Cochrane Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>417</v>
+        <v>78650</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>78650</v>
+        <v>50000</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14791,11 +14791,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>50000</v>
+        <v>417</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14834,16 +14834,16 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14882,16 +14882,16 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -15828,7 +15828,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15843,11 +15843,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15876,7 +15876,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15891,11 +15891,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -17604,7 +17604,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
+          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17619,11 +17619,11 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17652,7 +17652,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
+          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17667,11 +17667,11 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17700,7 +17700,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17710,16 +17710,16 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Salva-21 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17728,12 +17728,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17748,7 +17748,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17758,16 +17758,16 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17776,12 +17776,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -18608,7 +18608,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -18623,11 +18623,11 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F381" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G381" t="inlineStr">
         <is>
@@ -18636,12 +18636,12 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
@@ -18656,7 +18656,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -18671,11 +18671,11 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F382" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G382" t="inlineStr">
         <is>
@@ -18684,12 +18684,12 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
@@ -19948,7 +19948,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19958,16 +19958,16 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19976,12 +19976,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -19996,7 +19996,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20006,16 +20006,16 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20024,12 +20024,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -4663,7 +4663,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A..</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -7543,7 +7543,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A..</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
@@ -10423,7 +10423,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A..</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F210" t="n">
@@ -12295,7 +12295,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A..</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F249" t="n">
@@ -12583,7 +12583,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A..</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F255" t="n">
@@ -16563,7 +16563,7 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A..</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F338" t="n">
@@ -24187,7 +24187,7 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A..</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F497" t="n">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,16 +7922,16 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -8968,26 +8968,26 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,26 +9016,26 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12626,16 +12626,16 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12674,16 +12674,16 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>78650</v>
+        <v>417</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14791,11 +14791,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>50000</v>
+        <v>78650</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14839,11 +14839,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Compañía Minera Cochrane Ltda.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>417</v>
+        <v>50000</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -15876,7 +15876,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15891,11 +15891,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15924,7 +15924,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15939,11 +15939,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -17652,7 +17652,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
+          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17667,11 +17667,11 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17700,7 +17700,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
+          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17715,11 +17715,11 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17748,7 +17748,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17758,16 +17758,16 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17776,12 +17776,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17796,7 +17796,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17806,16 +17806,16 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Salva-21 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17824,12 +17824,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -18656,7 +18656,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -18671,11 +18671,11 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F382" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G382" t="inlineStr">
         <is>
@@ -18684,12 +18684,12 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
@@ -18704,7 +18704,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -18719,11 +18719,11 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F383" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
@@ -18732,12 +18732,12 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
@@ -19996,7 +19996,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20006,16 +20006,16 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20024,12 +20024,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -20044,7 +20044,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -20054,16 +20054,16 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20072,12 +20072,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,16 +7922,16 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -8968,26 +8968,26 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,26 +9016,26 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12626,16 +12626,16 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12674,16 +12674,16 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Compañía Minera Cochrane Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>417</v>
+        <v>78650</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14791,11 +14791,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>78650</v>
+        <v>50000</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14839,11 +14839,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>50000</v>
+        <v>417</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -15876,7 +15876,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15891,11 +15891,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15924,7 +15924,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15939,11 +15939,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -17652,7 +17652,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
+          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17667,11 +17667,11 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17700,7 +17700,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
+          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17715,11 +17715,11 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17748,7 +17748,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17758,16 +17758,16 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Salva-21 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17776,12 +17776,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17796,7 +17796,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17806,16 +17806,16 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17824,12 +17824,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -18656,7 +18656,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -18671,11 +18671,11 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F382" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G382" t="inlineStr">
         <is>
@@ -18684,12 +18684,12 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
@@ -18704,7 +18704,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -18719,11 +18719,11 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F383" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
@@ -18732,12 +18732,12 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
@@ -19996,7 +19996,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20006,16 +20006,16 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20024,12 +20024,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -20044,7 +20044,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -20054,16 +20054,16 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20072,12 +20072,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/05/2023</t>
+          <t>22/05/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,16 +7922,16 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7975,7 +7975,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>ACF MINERA S.A.</t>
+          <t>ACF Baquedano S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
@@ -8968,26 +8968,26 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,26 +9016,26 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12626,16 +12626,16 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12674,16 +12674,16 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>78650</v>
+        <v>417</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14791,11 +14791,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>50000</v>
+        <v>78650</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14839,11 +14839,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Compañía Minera Cochrane Ltda.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>417</v>
+        <v>50000</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -15876,7 +15876,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15891,11 +15891,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15924,7 +15924,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15939,11 +15939,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -17652,7 +17652,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
+          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17667,11 +17667,11 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17700,7 +17700,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
+          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17715,11 +17715,11 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17748,7 +17748,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17758,16 +17758,16 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17776,12 +17776,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17796,7 +17796,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17806,16 +17806,16 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Salva-21 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17824,12 +17824,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -18656,7 +18656,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -18671,11 +18671,11 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F382" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G382" t="inlineStr">
         <is>
@@ -18684,12 +18684,12 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
@@ -18704,7 +18704,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -18719,11 +18719,11 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F383" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
@@ -18732,12 +18732,12 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
@@ -19996,7 +19996,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20006,16 +20006,16 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20024,12 +20024,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -20044,7 +20044,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -20054,16 +20054,16 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20072,12 +20072,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,16 +7922,16 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -8968,26 +8968,26 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,26 +9016,26 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12626,16 +12626,16 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12674,16 +12674,16 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>78650</v>
+        <v>417</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14791,11 +14791,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>50000</v>
+        <v>78650</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14839,11 +14839,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Compañía Minera Cochrane Ltda.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>417</v>
+        <v>50000</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -15876,7 +15876,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15891,11 +15891,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15924,7 +15924,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15939,11 +15939,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -17652,7 +17652,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
+          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17667,11 +17667,11 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17700,7 +17700,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
+          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17715,11 +17715,11 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17748,7 +17748,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17758,16 +17758,16 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17776,12 +17776,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17796,7 +17796,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17806,16 +17806,16 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Salva-21 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17824,12 +17824,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -18656,7 +18656,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -18671,11 +18671,11 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F382" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G382" t="inlineStr">
         <is>
@@ -18684,12 +18684,12 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
@@ -18704,7 +18704,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -18719,11 +18719,11 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F383" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
@@ -18732,12 +18732,12 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
@@ -19996,7 +19996,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20006,16 +20006,16 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20024,12 +20024,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -20044,7 +20044,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -20054,16 +20054,16 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20072,12 +20072,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,16 +7922,16 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -8968,26 +8968,26 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,26 +9016,26 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12626,16 +12626,16 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12674,16 +12674,16 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>78650</v>
+        <v>417</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14791,11 +14791,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>50000</v>
+        <v>78650</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14839,11 +14839,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Compañía Minera Cochrane Ltda.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>417</v>
+        <v>50000</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14882,16 +14882,16 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14930,16 +14930,16 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -15876,7 +15876,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15891,11 +15891,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15924,7 +15924,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15939,11 +15939,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -17748,7 +17748,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17758,16 +17758,16 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17776,12 +17776,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17796,7 +17796,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17806,16 +17806,16 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Salva-21 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17824,12 +17824,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -18656,7 +18656,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -18671,11 +18671,11 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F382" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G382" t="inlineStr">
         <is>
@@ -18684,12 +18684,12 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
@@ -18704,7 +18704,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -18719,11 +18719,11 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F383" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
@@ -18732,12 +18732,12 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
@@ -19996,7 +19996,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20006,16 +20006,16 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20024,12 +20024,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -20044,7 +20044,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -20054,16 +20054,16 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20072,12 +20072,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,16 +7922,16 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -8968,26 +8968,26 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,26 +9016,26 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12626,16 +12626,16 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12674,16 +12674,16 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Compañía Minera Cochrane Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>417</v>
+        <v>78650</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14791,11 +14791,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>78650</v>
+        <v>50000</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14839,11 +14839,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>50000</v>
+        <v>417</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14882,16 +14882,16 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14930,16 +14930,16 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -15876,7 +15876,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15891,11 +15891,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15924,7 +15924,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15939,11 +15939,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -17748,7 +17748,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17758,16 +17758,16 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Salva-21 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17776,12 +17776,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17796,7 +17796,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17806,16 +17806,16 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17824,12 +17824,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -18656,7 +18656,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -18671,11 +18671,11 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F382" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G382" t="inlineStr">
         <is>
@@ -18684,12 +18684,12 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
@@ -18704,7 +18704,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -18719,11 +18719,11 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F383" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
@@ -18732,12 +18732,12 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
@@ -19996,7 +19996,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20006,16 +20006,16 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20024,12 +20024,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -20044,7 +20044,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -20054,16 +20054,16 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20072,12 +20072,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,16 +7922,16 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,16 +7970,16 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -9016,26 +9016,26 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,26 +9064,26 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12674,16 +12674,16 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12722,16 +12722,16 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14791,11 +14791,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>78650</v>
+        <v>417</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14839,11 +14839,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>50000</v>
+        <v>78650</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14887,11 +14887,11 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Compañía Minera Cochrane Ltda.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>417</v>
+        <v>50000</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -15924,7 +15924,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15939,11 +15939,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15972,7 +15972,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15987,11 +15987,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -17700,7 +17700,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
+          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17715,11 +17715,11 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17748,7 +17748,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
+          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17763,11 +17763,11 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17796,7 +17796,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17806,16 +17806,16 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17824,12 +17824,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17844,7 +17844,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17854,16 +17854,16 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Salva-21 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17872,12 +17872,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -18704,7 +18704,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -18719,11 +18719,11 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F383" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
@@ -18732,12 +18732,12 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
@@ -18752,7 +18752,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -18767,11 +18767,11 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F384" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -18780,12 +18780,12 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -20044,7 +20044,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -20054,16 +20054,16 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20072,12 +20072,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -20092,7 +20092,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20102,16 +20102,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20120,12 +20120,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,16 +7922,16 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,16 +7970,16 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -9016,26 +9016,26 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,26 +9064,26 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12674,16 +12674,16 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12722,16 +12722,16 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14791,11 +14791,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Compañía Minera Cochrane Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>417</v>
+        <v>78650</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14839,11 +14839,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>78650</v>
+        <v>50000</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14887,11 +14887,11 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>50000</v>
+        <v>417</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -15924,7 +15924,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15939,11 +15939,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15972,7 +15972,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15987,11 +15987,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -17700,7 +17700,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
+          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17715,11 +17715,11 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17748,7 +17748,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
+          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17763,11 +17763,11 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17796,7 +17796,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17806,16 +17806,16 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Salva-21 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17824,12 +17824,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17844,7 +17844,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17854,16 +17854,16 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17872,12 +17872,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -18704,7 +18704,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -18719,11 +18719,11 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F383" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
@@ -18732,12 +18732,12 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
@@ -18752,7 +18752,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -18767,11 +18767,11 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F384" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -18780,12 +18780,12 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -20044,7 +20044,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -20054,16 +20054,16 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20072,12 +20072,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -20092,7 +20092,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20102,16 +20102,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20120,12 +20120,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>08/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -443,7 +443,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2500</v>
+        <v>2.5</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -2359,7 +2359,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>El Condor Solar SpA</t>
+          <t>AMANECER SOLAR SPA</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,16 +7922,16 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,16 +7970,16 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8167,7 +8167,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Helio Atacama Tres SpA</t>
+          <t>Bolero SpA</t>
         </is>
       </c>
       <c r="F163" t="n">
@@ -8311,7 +8311,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Helio Atacama Tres SpA</t>
+          <t>Bolero SpA</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -9016,26 +9016,26 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,26 +9064,26 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -10327,7 +10327,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Helio Atacama Tres SpA</t>
+          <t>Bolero SpA</t>
         </is>
       </c>
       <c r="F208" t="n">
@@ -10375,7 +10375,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Helio Atacama Tres SpA</t>
+          <t>Bolero SpA</t>
         </is>
       </c>
       <c r="F209" t="n">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12674,16 +12674,16 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12722,16 +12722,16 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14791,11 +14791,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Compañía Minera Cochrane Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>417</v>
+        <v>78650</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14839,11 +14839,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>78650</v>
+        <v>50000</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14887,11 +14887,11 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>50000</v>
+        <v>417</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -15924,7 +15924,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15939,11 +15939,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15972,7 +15972,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15987,11 +15987,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -17700,7 +17700,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
+          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17715,11 +17715,11 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17748,7 +17748,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
+          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17763,11 +17763,11 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17796,7 +17796,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17806,16 +17806,16 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Salva-21 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17824,12 +17824,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17844,7 +17844,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17854,16 +17854,16 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17872,12 +17872,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -18704,7 +18704,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -18719,11 +18719,11 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F383" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
@@ -18732,12 +18732,12 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
@@ -18752,7 +18752,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -18767,11 +18767,11 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F384" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -18780,12 +18780,12 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -20044,7 +20044,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -20054,16 +20054,16 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20072,12 +20072,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -20092,7 +20092,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20102,16 +20102,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20120,12 +20120,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -1543,7 +1543,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>El Condor Solar SpA</t>
+          <t>La Sierra SpA</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,16 +7922,16 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,16 +7970,16 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -9016,26 +9016,26 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,26 +9064,26 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12674,16 +12674,16 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12722,16 +12722,16 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14791,11 +14791,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>78650</v>
+        <v>417</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14839,11 +14839,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>50000</v>
+        <v>78650</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14887,11 +14887,11 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Compañía Minera Cochrane Ltda.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>417</v>
+        <v>50000</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -15924,7 +15924,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15939,11 +15939,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15972,7 +15972,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15987,11 +15987,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -17700,7 +17700,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
+          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17715,11 +17715,11 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17748,7 +17748,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
+          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17763,11 +17763,11 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17796,7 +17796,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17806,16 +17806,16 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17824,12 +17824,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17844,7 +17844,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17854,16 +17854,16 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Salva-21 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17872,12 +17872,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -18704,7 +18704,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -18719,11 +18719,11 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F383" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
@@ -18732,12 +18732,12 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
@@ -18752,7 +18752,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -18767,11 +18767,11 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F384" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -18780,12 +18780,12 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -20044,7 +20044,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -20054,16 +20054,16 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20072,12 +20072,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -20092,7 +20092,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20102,16 +20102,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20120,12 +20120,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -17700,7 +17700,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
+          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17715,11 +17715,11 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17748,7 +17748,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
+          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17763,11 +17763,11 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,16 +7922,16 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,16 +7970,16 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -9016,26 +9016,26 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,26 +9064,26 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12674,16 +12674,16 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12722,16 +12722,16 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14791,11 +14791,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Compañía Minera Cochrane Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>417</v>
+        <v>78650</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14839,11 +14839,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>78650</v>
+        <v>50000</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14887,11 +14887,11 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>50000</v>
+        <v>417</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -15924,7 +15924,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15939,11 +15939,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15972,7 +15972,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15987,11 +15987,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -17796,7 +17796,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17806,16 +17806,16 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Salva-21 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17824,12 +17824,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17844,7 +17844,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17854,16 +17854,16 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17872,12 +17872,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -18704,7 +18704,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -18719,11 +18719,11 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F383" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
@@ -18732,12 +18732,12 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
@@ -18752,7 +18752,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -18767,11 +18767,11 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F384" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -18780,12 +18780,12 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -20044,7 +20044,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -20054,16 +20054,16 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20072,12 +20072,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -20092,7 +20092,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20102,16 +20102,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20120,12 +20120,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,16 +7922,16 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,16 +7970,16 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -9016,26 +9016,26 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,26 +9064,26 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12674,16 +12674,16 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12722,16 +12722,16 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14791,11 +14791,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>78650</v>
+        <v>417</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14839,11 +14839,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>50000</v>
+        <v>78650</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14887,11 +14887,11 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Compañía Minera Cochrane Ltda.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>417</v>
+        <v>50000</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -15924,7 +15924,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15939,11 +15939,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15972,7 +15972,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15987,11 +15987,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -17796,7 +17796,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17806,16 +17806,16 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17824,12 +17824,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17844,7 +17844,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17854,16 +17854,16 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Salva-21 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17872,12 +17872,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -18704,7 +18704,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -18719,11 +18719,11 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F383" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
@@ -18732,12 +18732,12 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
@@ -18752,7 +18752,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -18767,11 +18767,11 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F384" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -18780,12 +18780,12 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -20044,7 +20044,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -20054,16 +20054,16 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20072,12 +20072,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -20092,7 +20092,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20102,16 +20102,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20120,12 +20120,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -2311,7 +2311,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>El Condor Solar SpA</t>
+          <t>Andino Solar SpA</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,16 +7922,16 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,16 +7970,16 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -9016,26 +9016,26 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,26 +9064,26 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12674,16 +12674,16 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12722,16 +12722,16 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14791,11 +14791,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>78650</v>
+        <v>417</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14839,11 +14839,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>50000</v>
+        <v>78650</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14887,11 +14887,11 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Compañía Minera Cochrane Ltda.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>417</v>
+        <v>50000</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -15924,7 +15924,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15939,11 +15939,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15972,7 +15972,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15987,11 +15987,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -17796,7 +17796,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17806,16 +17806,16 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17824,12 +17824,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17844,7 +17844,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17854,16 +17854,16 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Salva-21 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17872,12 +17872,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -18704,7 +18704,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -18719,11 +18719,11 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F383" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
@@ -18732,12 +18732,12 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
@@ -18752,7 +18752,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -18767,11 +18767,11 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F384" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -18780,12 +18780,12 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -20044,7 +20044,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -20054,16 +20054,16 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20072,12 +20072,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -20092,7 +20092,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20102,16 +20102,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20120,12 +20120,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,16 +7970,16 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,16 +8018,16 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8036,12 +8036,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -9064,26 +9064,26 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,26 +9112,26 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,11 +9559,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12722,16 +12722,16 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12770,16 +12770,16 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14839,11 +14839,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>78650</v>
+        <v>417</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14887,11 +14887,11 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>50000</v>
+        <v>78650</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14935,11 +14935,11 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Compañía Minera Cochrane Ltda.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>417</v>
+        <v>50000</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14978,16 +14978,16 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15972,7 +15972,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15987,11 +15987,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16020,7 +16020,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16035,11 +16035,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16053,7 +16053,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -17748,7 +17748,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
+          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17763,11 +17763,11 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17796,7 +17796,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
+          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17811,11 +17811,11 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17844,7 +17844,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17854,16 +17854,16 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17872,12 +17872,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17892,7 +17892,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17902,16 +17902,16 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Salva-21 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17920,12 +17920,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -18752,7 +18752,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -18767,11 +18767,11 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F384" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -18780,12 +18780,12 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -18800,7 +18800,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -18815,11 +18815,11 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F385" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -18828,12 +18828,12 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
@@ -20092,7 +20092,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20102,16 +20102,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20120,12 +20120,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20140,7 +20140,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20150,16 +20150,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20168,12 +20168,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,16 +7970,16 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,16 +8018,16 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8036,12 +8036,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -9064,26 +9064,26 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,26 +9112,26 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,11 +9559,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12722,16 +12722,16 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12770,16 +12770,16 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14839,11 +14839,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Compañía Minera Cochrane Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>417</v>
+        <v>78650</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14887,11 +14887,11 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>78650</v>
+        <v>50000</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14935,11 +14935,11 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>50000</v>
+        <v>417</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14978,16 +14978,16 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15972,7 +15972,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15987,11 +15987,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16020,7 +16020,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16035,11 +16035,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16053,7 +16053,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -17748,7 +17748,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
+          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17763,11 +17763,11 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17796,7 +17796,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>LÍNEA DE ALTA TENSIÓN S/E CHACAYA S/E EL COBRE (e-seia)</t>
+          <t>Lixiviación del Acopio de Mineral Oxidado (e-seia)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17811,11 +17811,11 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3219226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17844,7 +17844,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17854,16 +17854,16 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Salva-21 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17872,12 +17872,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17892,7 +17892,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17902,16 +17902,16 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17920,12 +17920,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -18752,7 +18752,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -18767,11 +18767,11 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F384" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -18780,12 +18780,12 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -18800,7 +18800,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -18815,11 +18815,11 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F385" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -18828,12 +18828,12 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
@@ -20092,7 +20092,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20102,16 +20102,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20120,12 +20120,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20140,7 +20140,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20150,16 +20150,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20168,12 +20168,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/10/2023</t>
+          <t>31/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,16 +7970,16 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,16 +8018,16 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8036,12 +8036,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -9064,26 +9064,26 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,26 +9112,26 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,11 +9559,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12722,16 +12722,16 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12770,16 +12770,16 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14839,11 +14839,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>78650</v>
+        <v>417</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14887,11 +14887,11 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>50000</v>
+        <v>78650</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14935,11 +14935,11 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Compañía Minera Cochrane Ltda.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>417</v>
+        <v>50000</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14978,16 +14978,16 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15972,7 +15972,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15987,11 +15987,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16020,7 +16020,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16035,11 +16035,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16053,7 +16053,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -17844,7 +17844,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17854,16 +17854,16 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17872,12 +17872,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17892,7 +17892,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17902,16 +17902,16 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Salva-21 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17920,12 +17920,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -18752,7 +18752,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -18767,11 +18767,11 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F384" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -18780,12 +18780,12 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -18800,7 +18800,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -18815,11 +18815,11 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F385" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -18828,12 +18828,12 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
@@ -20092,7 +20092,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20102,16 +20102,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20120,12 +20120,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20140,7 +20140,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20150,16 +20150,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20168,12 +20168,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,16 +7970,16 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,16 +8018,16 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8036,12 +8036,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -9064,26 +9064,26 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,26 +9112,26 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,11 +9559,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12722,16 +12722,16 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12770,16 +12770,16 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14839,11 +14839,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Compañía Minera Cochrane Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>417</v>
+        <v>78650</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14887,11 +14887,11 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>78650</v>
+        <v>50000</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14935,11 +14935,11 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>50000</v>
+        <v>417</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14978,16 +14978,16 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15972,7 +15972,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15987,11 +15987,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16020,7 +16020,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16035,11 +16035,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16053,7 +16053,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -17844,7 +17844,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17854,16 +17854,16 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Salva-21 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17872,12 +17872,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17892,7 +17892,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17902,16 +17902,16 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17920,12 +17920,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -18752,7 +18752,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -18767,11 +18767,11 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F384" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -18780,12 +18780,12 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -18800,7 +18800,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -18815,11 +18815,11 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F385" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -18828,12 +18828,12 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
@@ -20092,7 +20092,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20102,16 +20102,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20120,12 +20120,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20140,7 +20140,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20150,16 +20150,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20168,12 +20168,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">

--- a/data/Sierra Gorda.xlsx
+++ b/data/Sierra Gorda.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Parque Eólico Sierra Gorda Este</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,16 +7970,16 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>260000</v>
+        <v>219</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Sierra Gorda Este</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,16 +8018,16 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>219</v>
+        <v>260000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8036,12 +8036,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128953475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -9064,26 +9064,26 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,26 +9112,26 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,11 +9559,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Prospección Minera Polo Sur</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12722,16 +12722,16 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Antofagasta Minerals S.A.</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Prospección Minera Polo Sur</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12770,16 +12770,16 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Antofagasta Minerals S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5296458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
+          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14839,11 +14839,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Compañía Minera Cochrane Ltda.</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>417</v>
+        <v>78650</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Minera El Tesoro: Explotación Yacimiento Mirador y Ampliación Superficie Depósito de Ripios</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14887,11 +14887,11 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>78650</v>
+        <v>50000</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4440965&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Obtención de Cemento de Cobre a través de la utilización de Ripios ya Lixiviados, Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14935,11 +14935,11 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Compañía Minera Cochrane Ltda.</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>50000</v>
+        <v>417</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4447569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14978,16 +14978,16 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15972,7 +15972,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15987,11 +15987,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16020,7 +16020,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16035,11 +16035,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16053,7 +16053,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -17844,7 +17844,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17854,16 +17854,16 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Salva-21 SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>15000</v>
+        <v>139</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17872,12 +17872,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17892,7 +17892,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Procesamiento de Minerales y Subproductos Sulfurados en Planta de Flotación Callejas Zamora (e-seia)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17902,16 +17902,16 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>139</v>
+        <v>15000</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17920,12 +17920,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -18752,7 +18752,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
+          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -18767,11 +18767,11 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F384" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -18780,12 +18780,12 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -18800,7 +18800,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Actualización de Transporte y Almacenamiento de Sustancias Peligrosas de Mienera Escondida Limitada (e-seia)</t>
+          <t>extraccion y produccion de gravilla nelson martinez torres (e-seia)</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -18815,11 +18815,11 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>NELSON ADRIAN MARTIMEZ TORRES</t>
         </is>
       </c>
       <c r="F385" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -18828,12 +18828,12 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2782747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
@@ -20092,7 +20092,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20102,16 +20102,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Minera Centinela.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20120,12 +20120,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20140,7 +20140,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROSPECCIÓN MINERA TELÉGRAFO (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20150,16 +20150,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Minera Centinela.</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>234</v>
+        <v>8000</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20168,12 +20168,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2424733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
